--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700"/>
+    <workbookView windowWidth="21000" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Run</t>
   </si>
@@ -69,6 +69,141 @@
   </si>
   <si>
     <t>1028-17</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_aboutuspage.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/about-us</t>
+  </si>
+  <si>
+    <t>2070-1989</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Address.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/customer/address/</t>
+  </si>
+  <si>
+    <t>1286-4967</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Cart.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/checkout/cart/</t>
+  </si>
+  <si>
+    <t>1251-4293</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Category.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/shop/dining-table.html</t>
+  </si>
+  <si>
+    <t>1246-1742</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Changepassword.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/customer/account/edit/changepass/1/</t>
+  </si>
+  <si>
+    <t>1286-5489</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Checkout.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/onestepcheckout/</t>
+  </si>
+  <si>
+    <t>1246-3602</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Contactus.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/contact</t>
+  </si>
+  <si>
+    <t>1299-3010</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Editaddress.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/customer/address/new/</t>
+  </si>
+  <si>
+    <t>1286-5307</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Editprofile.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/customer/account/edit/</t>
+  </si>
+  <si>
+    <t>1286-5154</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_FAQ.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/faqs</t>
+  </si>
+  <si>
+    <t>1199-1719</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Newsletter.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/newsletter/manage/</t>
+  </si>
+  <si>
+    <t>1390-1028</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Orders.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/sales/order/history/</t>
+  </si>
+  <si>
+    <t>1514-2257</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Productdetails.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/wizer-dining-table-with-10-chairs-included.html</t>
+  </si>
+  <si>
+    <t>1060-3416</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Storelocator.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/store-location</t>
+  </si>
+  <si>
+    <t>2342-3111</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Vieworder.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/sales/order/view/order_id/1013/</t>
+  </si>
+  <si>
+    <t>1286-6020</t>
   </si>
 </sst>
 </file>
@@ -754,13 +889,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,22 +1149,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.6296296296296" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.38095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.37962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42592592592593" style="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.8761904761905" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5047619047619" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="22.6285714285714" style="1"/>
+    <col min="4" max="4" width="58.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.4259259259259" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5092592592593" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="22.6296296296296" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1085,29 +1213,350 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="4:4">
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="2"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -71,7 +71,7 @@
     <t>1028-17</t>
   </si>
   <si>
-    <t>Lilt_Desktop_aboutuspage.png</t>
+    <t>aboutuspage.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/about-us</t>
@@ -80,7 +80,7 @@
     <t>2070-1989</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Address.png</t>
+    <t>Address.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/customer/address/</t>
@@ -89,7 +89,7 @@
     <t>1286-4967</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Cart.png</t>
+    <t>Cart.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/checkout/cart/</t>
@@ -98,7 +98,7 @@
     <t>1251-4293</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Category.png</t>
+    <t>Category.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/shop/dining-table.html</t>
@@ -107,7 +107,7 @@
     <t>1246-1742</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Changepassword.png</t>
+    <t>Changepassword.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/customer/account/edit/changepass/1/</t>
@@ -116,7 +116,7 @@
     <t>1286-5489</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Checkout.png</t>
+    <t>Checkout.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/onestepcheckout/</t>
@@ -125,7 +125,7 @@
     <t>1246-3602</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Contactus.png</t>
+    <t>Contactus.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/contact</t>
@@ -134,7 +134,7 @@
     <t>1299-3010</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Editaddress.png</t>
+    <t>Editaddress.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/customer/address/new/</t>
@@ -143,7 +143,7 @@
     <t>1286-5307</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Editprofile.png</t>
+    <t>Editprofile.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/customer/account/edit/</t>
@@ -152,7 +152,7 @@
     <t>1286-5154</t>
   </si>
   <si>
-    <t>Lilt_Desktop_FAQ.png</t>
+    <t>FAQ.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/faqs</t>
@@ -161,7 +161,7 @@
     <t>1199-1719</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Newsletter.png</t>
+    <t>Newsletter.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/newsletter/manage/</t>
@@ -170,7 +170,7 @@
     <t>1390-1028</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Orders.png</t>
+    <t>Orders.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/sales/order/history/</t>
@@ -179,7 +179,7 @@
     <t>1514-2257</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Productdetails.png</t>
+    <t>Productdetails.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/wizer-dining-table-with-10-chairs-included.html</t>
@@ -188,7 +188,7 @@
     <t>1060-3416</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Storelocator.png</t>
+    <t>Storelocator.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/store-location</t>
@@ -197,7 +197,7 @@
     <t>2342-3111</t>
   </si>
   <si>
-    <t>Lilt_Desktop_Vieworder.png</t>
+    <t>Vieworder.png</t>
   </si>
   <si>
     <t>https://lilt-sa.com/en/sales/order/view/order_id/1013/</t>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6296296296296" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8400"/>
+    <workbookView windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>Run</t>
   </si>
@@ -204,6 +204,87 @@
   </si>
   <si>
     <t>1286-6020</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Homepage_Mobile</t>
+  </si>
+  <si>
+    <t>Category_mobile</t>
+  </si>
+  <si>
+    <t>Product Details Page_mobile</t>
+  </si>
+  <si>
+    <t>Cart_mobile</t>
+  </si>
+  <si>
+    <t>Checkout_With_Saved_Address_Mobile</t>
+  </si>
+  <si>
+    <t>Checkout_With_Different_Billing_Address_Mobile</t>
+  </si>
+  <si>
+    <t>Checkout_With_Same_Billing_Address_Mobile</t>
+  </si>
+  <si>
+    <t>Confirmation_mobile</t>
+  </si>
+  <si>
+    <t>About Us Page_mobile</t>
+  </si>
+  <si>
+    <t>Project Page_mobile</t>
+  </si>
+  <si>
+    <t>Project Detail Page_mobile</t>
+  </si>
+  <si>
+    <t>Blog Listing_mobile</t>
+  </si>
+  <si>
+    <t>Blog Details Page_mobile</t>
+  </si>
+  <si>
+    <t>FAQ_mobile</t>
+  </si>
+  <si>
+    <t>Contact Us_mobile</t>
+  </si>
+  <si>
+    <t>Store Locator_mobile</t>
+  </si>
+  <si>
+    <t>Profile_mobile</t>
+  </si>
+  <si>
+    <t>Newsletter_mobile</t>
+  </si>
+  <si>
+    <t>Change Password_mobile</t>
+  </si>
+  <si>
+    <t>Edit Profile_mobile</t>
+  </si>
+  <si>
+    <t>Orders_mobile</t>
+  </si>
+  <si>
+    <t>View Order_mobile</t>
+  </si>
+  <si>
+    <t>Wishlist_mobile</t>
+  </si>
+  <si>
+    <t>Address_mobile</t>
+  </si>
+  <si>
+    <t>Edit Address_mobile</t>
+  </si>
+  <si>
+    <t>Login with phone_mobile</t>
   </si>
 </sst>
 </file>
@@ -889,6 +970,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,22 +1237,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.6296296296296" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.37962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42592592592593" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.38095238095238" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42857142857143" style="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.4259259259259" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6296296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5092592592593" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="22.6296296296296" style="1"/>
+    <col min="4" max="4" width="64.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5047619047619" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="22.6285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1259,10 +1347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1282,10 +1367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1305,10 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1328,10 +1407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1351,10 +1427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1374,10 +1447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1397,10 +1467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1420,10 +1487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1443,10 +1507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1466,10 +1527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1489,10 +1547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1512,10 +1567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1535,10 +1587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1556,6 +1605,139 @@
       </c>
       <c r="G17" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
   <si>
     <t>Run</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>1286-4967</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>Cart.png</t>
@@ -1240,14 +1243,14 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.38095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.4285714285714" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.6285714285714" style="1" customWidth="1"/>
@@ -1347,15 +1350,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1364,18 +1370,21 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1384,18 +1393,21 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1404,18 +1416,21 @@
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1424,18 +1439,21 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -1444,18 +1462,21 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -1464,18 +1485,21 @@
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -1484,18 +1508,21 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1504,18 +1531,21 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -1524,18 +1554,21 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1544,18 +1577,21 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -1564,18 +1600,21 @@
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -1584,18 +1623,21 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
@@ -1604,145 +1646,302 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
+    <hyperlink ref="D18" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
   <si>
     <t>Run</t>
   </si>
@@ -80,6 +80,9 @@
     <t>2070-1989</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>Address.png</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
     <t>1286-4967</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Cart.png</t>
   </si>
   <si>
@@ -215,25 +215,19 @@
     <t>Homepage_Mobile</t>
   </si>
   <si>
+    <t>1453-14860</t>
+  </si>
+  <si>
     <t>Category_mobile</t>
   </si>
   <si>
+    <t>1348-16936</t>
+  </si>
+  <si>
     <t>Product Details Page_mobile</t>
   </si>
   <si>
     <t>Cart_mobile</t>
-  </si>
-  <si>
-    <t>Checkout_With_Saved_Address_Mobile</t>
-  </si>
-  <si>
-    <t>Checkout_With_Different_Billing_Address_Mobile</t>
-  </si>
-  <si>
-    <t>Checkout_With_Same_Billing_Address_Mobile</t>
-  </si>
-  <si>
-    <t>Confirmation_mobile</t>
   </si>
   <si>
     <t>About Us Page_mobile</t>
@@ -973,13 +967,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1240,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A43"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1329,16 +1316,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1347,12 +1334,12 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -1375,7 +1362,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -1398,7 +1385,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1421,7 +1408,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1444,7 +1431,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1467,7 +1454,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1490,7 +1477,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1513,7 +1500,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -1536,7 +1523,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -1559,7 +1546,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
@@ -1582,7 +1569,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -1605,7 +1592,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
@@ -1628,7 +1615,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
@@ -1649,9 +1636,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>60</v>
@@ -1662,280 +1649,275 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Run</t>
   </si>
@@ -77,211 +77,7 @@
     <t>https://lilt-sa.com/en/about-us</t>
   </si>
   <si>
-    <t>2070-1989</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Address.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/customer/address/</t>
-  </si>
-  <si>
-    <t>1286-4967</t>
-  </si>
-  <si>
-    <t>Cart.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/checkout/cart/</t>
-  </si>
-  <si>
-    <t>1251-4293</t>
-  </si>
-  <si>
-    <t>Category.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/shop/dining-table.html</t>
-  </si>
-  <si>
-    <t>1246-1742</t>
-  </si>
-  <si>
-    <t>Changepassword.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/customer/account/edit/changepass/1/</t>
-  </si>
-  <si>
-    <t>1286-5489</t>
-  </si>
-  <si>
-    <t>Checkout.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/onestepcheckout/</t>
-  </si>
-  <si>
-    <t>1246-3602</t>
-  </si>
-  <si>
-    <t>Contactus.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/contact</t>
-  </si>
-  <si>
-    <t>1299-3010</t>
-  </si>
-  <si>
-    <t>Editaddress.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/customer/address/new/</t>
-  </si>
-  <si>
-    <t>1286-5307</t>
-  </si>
-  <si>
-    <t>Editprofile.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/customer/account/edit/</t>
-  </si>
-  <si>
-    <t>1286-5154</t>
-  </si>
-  <si>
-    <t>FAQ.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/faqs</t>
-  </si>
-  <si>
-    <t>1199-1719</t>
-  </si>
-  <si>
-    <t>Newsletter.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/newsletter/manage/</t>
-  </si>
-  <si>
-    <t>1390-1028</t>
-  </si>
-  <si>
-    <t>Orders.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/sales/order/history/</t>
-  </si>
-  <si>
-    <t>1514-2257</t>
-  </si>
-  <si>
-    <t>Productdetails.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/wizer-dining-table-with-10-chairs-included.html</t>
-  </si>
-  <si>
-    <t>1060-3416</t>
-  </si>
-  <si>
-    <t>Storelocator.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/store-location</t>
-  </si>
-  <si>
-    <t>2342-3111</t>
-  </si>
-  <si>
-    <t>Vieworder.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/sales/order/view/order_id/1013/</t>
-  </si>
-  <si>
-    <t>1286-6020</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Homepage_Mobile</t>
-  </si>
-  <si>
-    <t>1453-14860</t>
-  </si>
-  <si>
-    <t>Category_mobile</t>
-  </si>
-  <si>
-    <t>1348-16936</t>
-  </si>
-  <si>
-    <t>Product Details Page_mobile</t>
-  </si>
-  <si>
-    <t>Cart_mobile</t>
-  </si>
-  <si>
-    <t>About Us Page_mobile</t>
-  </si>
-  <si>
-    <t>Project Page_mobile</t>
-  </si>
-  <si>
-    <t>Project Detail Page_mobile</t>
-  </si>
-  <si>
-    <t>Blog Listing_mobile</t>
-  </si>
-  <si>
-    <t>Blog Details Page_mobile</t>
-  </si>
-  <si>
-    <t>FAQ_mobile</t>
-  </si>
-  <si>
-    <t>Contact Us_mobile</t>
-  </si>
-  <si>
-    <t>Store Locator_mobile</t>
-  </si>
-  <si>
-    <t>Profile_mobile</t>
-  </si>
-  <si>
-    <t>Newsletter_mobile</t>
-  </si>
-  <si>
-    <t>Change Password_mobile</t>
-  </si>
-  <si>
-    <t>Edit Profile_mobile</t>
-  </si>
-  <si>
-    <t>Orders_mobile</t>
-  </si>
-  <si>
-    <t>View Order_mobile</t>
-  </si>
-  <si>
-    <t>Wishlist_mobile</t>
-  </si>
-  <si>
-    <t>Address_mobile</t>
-  </si>
-  <si>
-    <t>Edit Address_mobile</t>
-  </si>
-  <si>
-    <t>Login with phone_mobile</t>
+    <t>2070-19891</t>
   </si>
 </sst>
 </file>
@@ -294,7 +90,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,14 +102,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -776,138 +564,137 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,6 +754,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,7 +1024,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1314,616 +1108,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
-    <hyperlink ref="D18" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Run</t>
   </si>
@@ -78,6 +78,117 @@
   </si>
   <si>
     <t>2070-19891</t>
+  </si>
+  <si>
+    <t>Category.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/shop/dining-table.html</t>
+  </si>
+  <si>
+    <t>1246-1742</t>
+  </si>
+  <si>
+    <t>Contactus.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/contact</t>
+  </si>
+  <si>
+    <t>1299-3010</t>
+  </si>
+  <si>
+    <t>Productdetails.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/wizer-dining-table-with-10-chairs-included.html</t>
+  </si>
+  <si>
+    <t>1060-3416</t>
+  </si>
+  <si>
+    <t>FAQ.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/faqs</t>
+  </si>
+  <si>
+    <t>1199-1719</t>
+  </si>
+  <si>
+    <t>Storelocator.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/store-location</t>
+  </si>
+  <si>
+    <t>2342-31118</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Vieworder.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/sales/order/view/order_id/1013/</t>
+  </si>
+  <si>
+    <t>1286-6020</t>
+  </si>
+  <si>
+    <t>Changepassword.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/customer/account/edit/changepass/1/</t>
+  </si>
+  <si>
+    <t>1286-5489</t>
+  </si>
+  <si>
+    <t>Checkout.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/onestepcheckout/</t>
+  </si>
+  <si>
+    <t>1246-3602</t>
+  </si>
+  <si>
+    <t>Editaddress.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/customer/address/new/</t>
+  </si>
+  <si>
+    <t>1286-5307</t>
+  </si>
+  <si>
+    <t>Editprofile.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/customer/account/edit/</t>
+  </si>
+  <si>
+    <t>1286-5154</t>
+  </si>
+  <si>
+    <t>Orders.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/sales/order/history/</t>
+  </si>
+  <si>
+    <t>1514-2257</t>
+  </si>
+  <si>
+    <t>Newsletter.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/newsletter/manage/</t>
+  </si>
+  <si>
+    <t>1390-10285</t>
   </si>
 </sst>
 </file>
@@ -691,10 +802,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,105 +1135,369 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.38095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5047619047619" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="22.6285714285714" style="1"/>
+    <col min="1" max="1" width="4.38095238095238" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.42857142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.5714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.6285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5047619047619" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="22.6285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="16" customFormat="1"/>
     <row r="17" customFormat="1"/>
     <row r="18" customFormat="1"/>
@@ -1138,15 +1516,11 @@
     <row r="31" customFormat="1"/>
     <row r="32" customFormat="1"/>
     <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
+    <hyperlink ref="D15" r:id="rId2" display="https://lilt-sa.com/en/newsletter/manage/"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://lilt-sa.com/en/store-location"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Run</t>
   </si>
@@ -50,145 +50,136 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Lilt_Desktop_Homepage.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/</t>
+  </si>
+  <si>
+    <t>figd_Z7DHrziinwDEboThuRI94m2d0KFKlpT3Kj3cOLjw</t>
+  </si>
+  <si>
+    <t>HgLzMdSDrs1JTRNbM2qC6Z</t>
+  </si>
+  <si>
+    <t>1028-17</t>
+  </si>
+  <si>
+    <t>aboutuspage.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/about-us</t>
+  </si>
+  <si>
+    <t>2070-19891</t>
+  </si>
+  <si>
+    <t>Category.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/shop/dining-table.html</t>
+  </si>
+  <si>
+    <t>1246-1742</t>
+  </si>
+  <si>
+    <t>Contactus.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/contact</t>
+  </si>
+  <si>
+    <t>1299-3010</t>
+  </si>
+  <si>
+    <t>Productdetails.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/wizer-dining-table-with-10-chairs-included.html</t>
+  </si>
+  <si>
+    <t>1060-3416</t>
+  </si>
+  <si>
+    <t>FAQ.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/faqs</t>
+  </si>
+  <si>
+    <t>1199-1719</t>
+  </si>
+  <si>
+    <t>Storelocator.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/store-location</t>
+  </si>
+  <si>
+    <t>2342-31118</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Lilt_Desktop_Homepage.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/</t>
-  </si>
-  <si>
-    <t>figd_Z7DHrziinwDEboThuRI94m2d0KFKlpT3Kj3cOLjw</t>
-  </si>
-  <si>
-    <t>HgLzMdSDrs1JTRNbM2qC6Z</t>
-  </si>
-  <si>
-    <t>1028-17</t>
-  </si>
-  <si>
-    <t>aboutuspage.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/about-us</t>
-  </si>
-  <si>
-    <t>2070-19891</t>
-  </si>
-  <si>
-    <t>Category.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/shop/dining-table.html</t>
-  </si>
-  <si>
-    <t>1246-1742</t>
-  </si>
-  <si>
-    <t>Contactus.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/contact</t>
-  </si>
-  <si>
-    <t>1299-3010</t>
-  </si>
-  <si>
-    <t>Productdetails.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/wizer-dining-table-with-10-chairs-included.html</t>
-  </si>
-  <si>
-    <t>1060-3416</t>
-  </si>
-  <si>
-    <t>FAQ.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/faqs</t>
-  </si>
-  <si>
-    <t>1199-1719</t>
-  </si>
-  <si>
-    <t>Storelocator.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/store-location</t>
-  </si>
-  <si>
-    <t>2342-31118</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Vieworder.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/sales/order/view/order_id/1013/</t>
-  </si>
-  <si>
-    <t>1286-6020</t>
-  </si>
-  <si>
-    <t>Changepassword.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/customer/account/edit/changepass/1/</t>
-  </si>
-  <si>
-    <t>1286-5489</t>
-  </si>
-  <si>
-    <t>Checkout.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/onestepcheckout/</t>
-  </si>
-  <si>
-    <t>1246-3602</t>
-  </si>
-  <si>
-    <t>Editaddress.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/customer/address/new/</t>
-  </si>
-  <si>
-    <t>1286-5307</t>
-  </si>
-  <si>
-    <t>Editprofile.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/customer/account/edit/</t>
-  </si>
-  <si>
-    <t>1286-5154</t>
-  </si>
-  <si>
-    <t>Orders.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/sales/order/history/</t>
-  </si>
-  <si>
-    <t>1514-2257</t>
-  </si>
-  <si>
-    <t>Newsletter.png</t>
-  </si>
-  <si>
-    <t>https://lilt-sa.com/en/newsletter/manage/</t>
-  </si>
-  <si>
-    <t>1390-10285</t>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Homepage_Mobile.png</t>
+  </si>
+  <si>
+    <t>1453-14860</t>
+  </si>
+  <si>
+    <t>Category_mobile.png</t>
+  </si>
+  <si>
+    <t>1348-16666</t>
+  </si>
+  <si>
+    <t>Product Details Page_mobile.png</t>
+  </si>
+  <si>
+    <t>1348-16936</t>
+  </si>
+  <si>
+    <t>About Us Page_mobile.png</t>
+  </si>
+  <si>
+    <t>2105-29093</t>
+  </si>
+  <si>
+    <t>FAQ_mobile.png</t>
+  </si>
+  <si>
+    <t>1544-20481</t>
+  </si>
+  <si>
+    <t>Contact Us_mobile.png</t>
+  </si>
+  <si>
+    <t>1563-16547</t>
+  </si>
+  <si>
+    <t>Store Locator_mobile.png</t>
+  </si>
+  <si>
+    <t>2421-50637</t>
+  </si>
+  <si>
+    <t>Login with phone_mobile.png</t>
+  </si>
+  <si>
+    <t>https://lilt-sa.com/en/customer/account/login/</t>
+  </si>
+  <si>
+    <t>1544-20320</t>
   </si>
 </sst>
 </file>
@@ -802,13 +793,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1337,18 +1329,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -1356,22 +1348,22 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -1379,22 +1371,22 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>40</v>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -1402,22 +1394,22 @@
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
+      <c r="G11" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1425,22 +1417,22 @@
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
+      <c r="G12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -1448,22 +1440,22 @@
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
+      <c r="G13" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1471,22 +1463,22 @@
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
+      <c r="G14" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -1494,11 +1486,33 @@
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
+      <c r="G15" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="1"/>
+    <row r="16" customFormat="1" spans="1:7">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="17" customFormat="1"/>
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1"/>
@@ -1509,18 +1523,12 @@
     <row r="24" customFormat="1"/>
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1"/>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
-    <hyperlink ref="D15" r:id="rId2" display="https://lilt-sa.com/en/newsletter/manage/"/>
-    <hyperlink ref="D8" r:id="rId3" display="https://lilt-sa.com/en/store-location"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://lilt-sa.com/en/store-location"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://lilt-sa.com/en/" tooltip="https://lilt-sa.com/en/"/>
+    <hyperlink ref="D15" r:id="rId2" display="https://lilt-sa.com/en/store-location"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
